--- a/biology/Histoire de la zoologie et de la botanique/José_Celestino_Bruno_Mutis_y_Bosio/José_Celestino_Bruno_Mutis_y_Bosio.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/José_Celestino_Bruno_Mutis_y_Bosio/José_Celestino_Bruno_Mutis_y_Bosio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Celestino_Bruno_Mutis_y_Bosio</t>
+          <t>José_Celestino_Bruno_Mutis_y_Bosio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Celestino Bruno Mutis y Bosio est un médecin et un naturaliste espagnol, né le 6 avril 1732 à Cadix et mort le 11 septembre 1808 à Bogota. Il est l'un des principaux auteurs de l'École Universaliste Espagnole du XVIIIe siècle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Celestino Bruno Mutis y Bosio est un médecin et un naturaliste espagnol, né le 6 avril 1732 à Cadix et mort le 11 septembre 1808 à Bogota. Il est l'un des principaux auteurs de l'École Universaliste Espagnole du XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Celestino_Bruno_Mutis_y_Bosio</t>
+          <t>José_Celestino_Bruno_Mutis_y_Bosio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il enseigne les mathématiques et dirige en 1760 une expédition scientifique en Nouvelle-Grenade (aujourd’hui la Colombie) ; il y est notamment accompagné par le botaniste Francisco Antonio Zea (1770-1822). Il s'installe à Santa-Fé, future Bogota et contribue à la diffusion des thèses linnéennes[2] en Amérique du Sud.
-En 1783, il organise une expédition botanique de grande envergure. En 1801, il rencontre et accueille chez lui Alexander von Humboldt et Aimé Bonpland à Bogota durant leur voyage d'exploration[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il enseigne les mathématiques et dirige en 1760 une expédition scientifique en Nouvelle-Grenade (aujourd’hui la Colombie) ; il y est notamment accompagné par le botaniste Francisco Antonio Zea (1770-1822). Il s'installe à Santa-Fé, future Bogota et contribue à la diffusion des thèses linnéennes en Amérique du Sud.
+En 1783, il organise une expédition botanique de grande envergure. En 1801, il rencontre et accueille chez lui Alexander von Humboldt et Aimé Bonpland à Bogota durant leur voyage d'exploration.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Celestino_Bruno_Mutis_y_Bosio</t>
+          <t>José_Celestino_Bruno_Mutis_y_Bosio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Bogota porte son nom.
 Un billet de deux mille pesetas a été émis à son effigie en Espagne.
